--- a/data/cva/raw/western_pacific/Giddens_etal_2022_tables.xlsx
+++ b/data/cva/raw/western_pacific/Giddens_etal_2022_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/cc_allocation/data/cva/raw/western_pacific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B400691D-B776-DD43-8B0A-2E2E6918E6E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141EEF10-81AD-5446-9282-296F265E90E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23900" yWindow="500" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{0FF03219-B693-6D44-B353-CCA0EAF54B06}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{0FF03219-B693-6D44-B353-CCA0EAF54B06}"/>
   </bookViews>
   <sheets>
     <sheet name="S4" sheetId="1" r:id="rId1"/>
@@ -677,7 +677,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -694,6 +694,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -719,12 +725,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -870,9 +875,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -910,7 +915,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1016,7 +1021,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1158,7 +1163,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1168,7 +1173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D31F62-8187-2244-A14C-49DA2E2FBABB}">
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -2618,23 +2623,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F083DDEA-FDC6-F24D-99E4-FAF311212AC5}">
   <dimension ref="A1:G220"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>84</v>
       </c>
@@ -2657,7 +2661,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>118</v>
       </c>
@@ -2680,7 +2684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>63</v>
       </c>
@@ -2703,7 +2707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
@@ -2726,7 +2730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>116</v>
       </c>
@@ -2749,7 +2753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -2772,7 +2776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>59</v>
       </c>
@@ -2795,7 +2799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>121</v>
       </c>
@@ -2818,7 +2822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
@@ -2841,7 +2845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>71</v>
       </c>
@@ -2864,7 +2868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -2887,7 +2891,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>68</v>
       </c>
@@ -2910,7 +2914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -2933,7 +2937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>44</v>
       </c>
@@ -2956,7 +2960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
@@ -2979,7 +2983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -3002,7 +3006,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,7 +3029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -3048,7 +3052,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>76</v>
       </c>
@@ -3071,7 +3075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -3094,7 +3098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>69</v>
       </c>
@@ -3117,11 +3121,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>157</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -3140,7 +3144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -3163,7 +3167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>70</v>
       </c>
@@ -3186,7 +3190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>112</v>
       </c>
@@ -3209,7 +3213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>111</v>
       </c>
@@ -3232,7 +3236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
@@ -3255,7 +3259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>53</v>
       </c>
@@ -3278,7 +3282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>23</v>
       </c>
@@ -3301,7 +3305,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>50</v>
       </c>
@@ -3324,7 +3328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>75</v>
       </c>
@@ -3347,7 +3351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>20</v>
       </c>
@@ -3370,7 +3374,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>105</v>
       </c>
@@ -3393,7 +3397,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>119</v>
       </c>
@@ -3416,7 +3420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>60</v>
       </c>
@@ -3439,7 +3443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>25</v>
       </c>
@@ -3462,7 +3466,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>22</v>
       </c>
@@ -3485,7 +3489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>52</v>
       </c>
@@ -3508,7 +3512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>30</v>
       </c>
@@ -3531,7 +3535,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>67</v>
       </c>
@@ -3554,7 +3558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>108</v>
       </c>
@@ -3577,7 +3581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>56</v>
       </c>
@@ -3600,7 +3604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
@@ -3623,7 +3627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>62</v>
       </c>
@@ -3646,7 +3650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>97</v>
       </c>
@@ -3669,7 +3673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>113</v>
       </c>
@@ -3692,7 +3696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>16</v>
       </c>
@@ -3715,7 +3719,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3738,7 +3742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>18</v>
       </c>
@@ -3761,7 +3765,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
@@ -3784,7 +3788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>100</v>
       </c>
@@ -3807,7 +3811,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>29</v>
       </c>
@@ -3830,7 +3834,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>31</v>
       </c>
@@ -3853,7 +3857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
@@ -3876,7 +3880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>10</v>
       </c>
@@ -3899,7 +3903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>9</v>
       </c>
@@ -3922,7 +3926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>12</v>
       </c>
@@ -3945,7 +3949,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>26</v>
       </c>
@@ -3968,7 +3972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>48</v>
       </c>
@@ -3991,7 +3995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>46</v>
       </c>
@@ -4014,7 +4018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>79</v>
       </c>
@@ -4037,7 +4041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>81</v>
       </c>
@@ -4060,7 +4064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>114</v>
       </c>
@@ -4083,7 +4087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>115</v>
       </c>
@@ -4106,7 +4110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>35</v>
       </c>
@@ -4129,7 +4133,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="66" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>7</v>
       </c>
@@ -4152,7 +4156,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>51</v>
       </c>
@@ -4175,7 +4179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>24</v>
       </c>
@@ -4198,7 +4202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>57</v>
       </c>
@@ -4221,7 +4225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>28</v>
       </c>
@@ -4244,7 +4248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>73</v>
       </c>
@@ -4267,7 +4271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>120</v>
       </c>
@@ -4290,7 +4294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>124</v>
       </c>
@@ -4313,7 +4317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>122</v>
       </c>
@@ -4336,7 +4340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>109</v>
       </c>
@@ -4359,7 +4363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>123</v>
       </c>
@@ -4382,7 +4386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>82</v>
       </c>
@@ -4405,7 +4409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>39</v>
       </c>
@@ -4428,7 +4432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>13</v>
       </c>
@@ -4451,7 +4455,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>58</v>
       </c>
@@ -4474,7 +4478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>101</v>
       </c>
@@ -4497,7 +4501,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>11</v>
       </c>
@@ -4520,7 +4524,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>14</v>
       </c>
@@ -4543,7 +4547,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>36</v>
       </c>
@@ -4566,756 +4570,756 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="85" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-    </row>
-    <row r="86" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-    </row>
-    <row r="87" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-    </row>
-    <row r="88" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-    </row>
-    <row r="89" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-    </row>
-    <row r="90" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-    </row>
-    <row r="91" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-    </row>
-    <row r="92" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-    </row>
-    <row r="93" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-    </row>
-    <row r="94" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-    </row>
-    <row r="95" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-    </row>
-    <row r="96" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-    </row>
-    <row r="97" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-    </row>
-    <row r="98" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-    </row>
-    <row r="99" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-    </row>
-    <row r="100" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-    </row>
-    <row r="101" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-    </row>
-    <row r="102" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
-      <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
-    </row>
-    <row r="103" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="4"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
-    </row>
-    <row r="104" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="4"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
-    </row>
-    <row r="105" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="4"/>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
-    </row>
-    <row r="106" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="4"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
-    </row>
-    <row r="107" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
-    </row>
-    <row r="108" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
-    </row>
-    <row r="109" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
-    </row>
-    <row r="110" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="4"/>
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
-    </row>
-    <row r="111" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="4"/>
-      <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
-    </row>
-    <row r="112" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="4"/>
-      <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
-    </row>
-    <row r="139" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="4"/>
-      <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
-      <c r="D139" s="4"/>
-      <c r="E139" s="4"/>
-      <c r="F139" s="4"/>
-      <c r="G139" s="4"/>
-    </row>
-    <row r="140" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="4"/>
-      <c r="B140" s="4"/>
-      <c r="C140" s="4"/>
-      <c r="D140" s="4"/>
-      <c r="E140" s="4"/>
-      <c r="F140" s="4"/>
-      <c r="G140" s="4"/>
-    </row>
-    <row r="141" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="4"/>
-      <c r="B141" s="4"/>
-      <c r="C141" s="4"/>
-      <c r="D141" s="4"/>
-      <c r="E141" s="4"/>
-      <c r="F141" s="4"/>
-      <c r="G141" s="4"/>
-    </row>
-    <row r="142" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="4"/>
-      <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
-      <c r="D142" s="4"/>
-      <c r="E142" s="4"/>
-      <c r="F142" s="4"/>
-      <c r="G142" s="4"/>
-    </row>
-    <row r="143" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="4"/>
-      <c r="B143" s="4"/>
-      <c r="C143" s="4"/>
-      <c r="D143" s="4"/>
-      <c r="E143" s="4"/>
-      <c r="F143" s="4"/>
-      <c r="G143" s="4"/>
-    </row>
-    <row r="144" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="4"/>
-      <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
-      <c r="D144" s="4"/>
-      <c r="E144" s="4"/>
-      <c r="F144" s="4"/>
-      <c r="G144" s="4"/>
-    </row>
-    <row r="145" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="4"/>
-      <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
-      <c r="E145" s="4"/>
-      <c r="F145" s="4"/>
-      <c r="G145" s="4"/>
-    </row>
-    <row r="146" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="4"/>
-      <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="4"/>
-      <c r="F146" s="4"/>
-      <c r="G146" s="4"/>
-    </row>
-    <row r="147" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="4"/>
-      <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
-      <c r="E147" s="4"/>
-      <c r="F147" s="4"/>
-      <c r="G147" s="4"/>
-    </row>
-    <row r="148" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="4"/>
-      <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
-      <c r="D148" s="4"/>
-      <c r="E148" s="4"/>
-      <c r="F148" s="4"/>
-      <c r="G148" s="4"/>
-    </row>
-    <row r="149" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="4"/>
-      <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
-      <c r="D149" s="4"/>
-      <c r="E149" s="4"/>
-      <c r="F149" s="4"/>
-      <c r="G149" s="4"/>
-    </row>
-    <row r="150" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="4"/>
-      <c r="B150" s="4"/>
-      <c r="C150" s="4"/>
-      <c r="D150" s="4"/>
-      <c r="E150" s="4"/>
-      <c r="F150" s="4"/>
-      <c r="G150" s="4"/>
-    </row>
-    <row r="151" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="4"/>
-      <c r="B151" s="4"/>
-      <c r="C151" s="4"/>
-      <c r="D151" s="4"/>
-      <c r="E151" s="4"/>
-      <c r="F151" s="4"/>
-      <c r="G151" s="4"/>
-    </row>
-    <row r="152" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="4"/>
-      <c r="B152" s="4"/>
-      <c r="C152" s="4"/>
-      <c r="D152" s="4"/>
-      <c r="E152" s="4"/>
-      <c r="F152" s="4"/>
-      <c r="G152" s="4"/>
-    </row>
-    <row r="153" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="4"/>
-      <c r="B153" s="4"/>
-      <c r="C153" s="4"/>
-      <c r="D153" s="4"/>
-      <c r="E153" s="4"/>
-      <c r="F153" s="4"/>
-      <c r="G153" s="4"/>
-    </row>
-    <row r="154" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="4"/>
-      <c r="B154" s="4"/>
-      <c r="C154" s="4"/>
-      <c r="D154" s="4"/>
-      <c r="E154" s="4"/>
-      <c r="F154" s="4"/>
-      <c r="G154" s="4"/>
-    </row>
-    <row r="155" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="4"/>
-      <c r="B155" s="4"/>
-      <c r="C155" s="4"/>
-      <c r="D155" s="4"/>
-      <c r="E155" s="4"/>
-      <c r="F155" s="4"/>
-      <c r="G155" s="4"/>
-    </row>
-    <row r="156" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="4"/>
-      <c r="B156" s="4"/>
-      <c r="C156" s="4"/>
-      <c r="D156" s="4"/>
-      <c r="E156" s="4"/>
-      <c r="F156" s="4"/>
-      <c r="G156" s="4"/>
-    </row>
-    <row r="157" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="4"/>
-      <c r="B157" s="4"/>
-      <c r="C157" s="4"/>
-      <c r="D157" s="4"/>
-      <c r="E157" s="4"/>
-      <c r="F157" s="4"/>
-      <c r="G157" s="4"/>
-    </row>
-    <row r="158" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="4"/>
-      <c r="B158" s="4"/>
-      <c r="C158" s="4"/>
-      <c r="D158" s="4"/>
-      <c r="E158" s="4"/>
-      <c r="F158" s="4"/>
-      <c r="G158" s="4"/>
-    </row>
-    <row r="159" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="4"/>
-      <c r="B159" s="4"/>
-      <c r="C159" s="4"/>
-      <c r="D159" s="4"/>
-      <c r="E159" s="4"/>
-      <c r="F159" s="4"/>
-      <c r="G159" s="4"/>
-    </row>
-    <row r="160" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="4"/>
-      <c r="B160" s="4"/>
-      <c r="C160" s="4"/>
-      <c r="D160" s="4"/>
-      <c r="E160" s="4"/>
-      <c r="F160" s="4"/>
-      <c r="G160" s="4"/>
-    </row>
-    <row r="161" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="4"/>
-      <c r="B161" s="4"/>
-      <c r="C161" s="4"/>
-      <c r="D161" s="4"/>
-      <c r="E161" s="4"/>
-      <c r="F161" s="4"/>
-      <c r="G161" s="4"/>
-    </row>
-    <row r="162" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="4"/>
-      <c r="B162" s="4"/>
-      <c r="C162" s="4"/>
-      <c r="D162" s="4"/>
-      <c r="E162" s="4"/>
-      <c r="F162" s="4"/>
-      <c r="G162" s="4"/>
-    </row>
-    <row r="163" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="4"/>
-      <c r="B163" s="4"/>
-      <c r="C163" s="4"/>
-      <c r="D163" s="4"/>
-      <c r="E163" s="4"/>
-      <c r="F163" s="4"/>
-      <c r="G163" s="4"/>
-    </row>
-    <row r="164" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="4"/>
-      <c r="B164" s="4"/>
-      <c r="C164" s="4"/>
-      <c r="D164" s="4"/>
-      <c r="E164" s="4"/>
-      <c r="F164" s="4"/>
-      <c r="G164" s="4"/>
-    </row>
-    <row r="165" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="4"/>
-      <c r="B165" s="4"/>
-      <c r="C165" s="4"/>
-      <c r="D165" s="4"/>
-      <c r="E165" s="4"/>
-      <c r="F165" s="4"/>
-      <c r="G165" s="4"/>
-    </row>
-    <row r="166" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="4"/>
-      <c r="B166" s="4"/>
-      <c r="C166" s="4"/>
-      <c r="D166" s="4"/>
-      <c r="E166" s="4"/>
-      <c r="F166" s="4"/>
-      <c r="G166" s="4"/>
-    </row>
-    <row r="167" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="4"/>
-      <c r="B167" s="4"/>
-      <c r="C167" s="4"/>
-      <c r="D167" s="4"/>
-      <c r="E167" s="4"/>
-      <c r="F167" s="4"/>
-      <c r="G167" s="4"/>
-    </row>
-    <row r="168" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="4"/>
-      <c r="B168" s="4"/>
-      <c r="C168" s="4"/>
-      <c r="D168" s="4"/>
-      <c r="E168" s="4"/>
-      <c r="F168" s="4"/>
-      <c r="G168" s="4"/>
-    </row>
-    <row r="196" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="4"/>
-      <c r="B196" s="4"/>
-      <c r="C196" s="4"/>
-      <c r="D196" s="4"/>
-      <c r="E196" s="4"/>
-      <c r="F196" s="4"/>
-      <c r="G196" s="4"/>
-    </row>
-    <row r="197" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="4"/>
-      <c r="B197" s="4"/>
-      <c r="C197" s="4"/>
-      <c r="D197" s="4"/>
-      <c r="E197" s="4"/>
-      <c r="F197" s="4"/>
-      <c r="G197" s="4"/>
-    </row>
-    <row r="198" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="4"/>
-      <c r="B198" s="4"/>
-      <c r="C198" s="4"/>
-      <c r="D198" s="4"/>
-      <c r="E198" s="4"/>
-      <c r="F198" s="4"/>
-      <c r="G198" s="4"/>
-    </row>
-    <row r="199" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="4"/>
-      <c r="B199" s="4"/>
-      <c r="C199" s="4"/>
-      <c r="D199" s="4"/>
-      <c r="E199" s="4"/>
-      <c r="F199" s="4"/>
-      <c r="G199" s="4"/>
-    </row>
-    <row r="200" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="4"/>
-      <c r="B200" s="4"/>
-      <c r="C200" s="4"/>
-      <c r="D200" s="4"/>
-      <c r="E200" s="4"/>
-      <c r="F200" s="4"/>
-      <c r="G200" s="4"/>
-    </row>
-    <row r="201" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="4"/>
-      <c r="B201" s="4"/>
-      <c r="C201" s="4"/>
-      <c r="D201" s="4"/>
-      <c r="E201" s="4"/>
-      <c r="F201" s="4"/>
-      <c r="G201" s="4"/>
-    </row>
-    <row r="202" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="4"/>
-      <c r="B202" s="4"/>
-      <c r="C202" s="4"/>
-      <c r="D202" s="4"/>
-      <c r="E202" s="4"/>
-      <c r="F202" s="4"/>
-      <c r="G202" s="4"/>
-    </row>
-    <row r="203" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="4"/>
-      <c r="B203" s="4"/>
-      <c r="C203" s="4"/>
-      <c r="D203" s="4"/>
-      <c r="E203" s="4"/>
-      <c r="F203" s="4"/>
-      <c r="G203" s="4"/>
-    </row>
-    <row r="204" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="4"/>
-      <c r="B204" s="4"/>
-      <c r="C204" s="4"/>
-      <c r="D204" s="4"/>
-      <c r="E204" s="4"/>
-      <c r="F204" s="4"/>
-      <c r="G204" s="4"/>
-    </row>
-    <row r="205" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="4"/>
-      <c r="B205" s="4"/>
-      <c r="C205" s="4"/>
-      <c r="D205" s="4"/>
-      <c r="E205" s="4"/>
-      <c r="F205" s="4"/>
-      <c r="G205" s="4"/>
-    </row>
-    <row r="206" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="4"/>
-      <c r="B206" s="4"/>
-      <c r="C206" s="4"/>
-      <c r="D206" s="4"/>
-      <c r="E206" s="4"/>
-      <c r="F206" s="4"/>
-      <c r="G206" s="4"/>
-    </row>
-    <row r="207" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="4"/>
-      <c r="B207" s="4"/>
-      <c r="C207" s="4"/>
-      <c r="D207" s="4"/>
-      <c r="E207" s="4"/>
-      <c r="F207" s="4"/>
-      <c r="G207" s="4"/>
-    </row>
-    <row r="208" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="4"/>
-      <c r="B208" s="4"/>
-      <c r="C208" s="4"/>
-      <c r="D208" s="4"/>
-      <c r="E208" s="4"/>
-      <c r="F208" s="4"/>
-      <c r="G208" s="4"/>
-    </row>
-    <row r="209" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="4"/>
-      <c r="B209" s="4"/>
-      <c r="C209" s="4"/>
-      <c r="D209" s="4"/>
-      <c r="E209" s="4"/>
-      <c r="F209" s="4"/>
-      <c r="G209" s="4"/>
-    </row>
-    <row r="210" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="4"/>
-      <c r="B210" s="4"/>
-      <c r="C210" s="4"/>
-      <c r="D210" s="4"/>
-      <c r="E210" s="4"/>
-      <c r="F210" s="4"/>
-      <c r="G210" s="4"/>
-    </row>
-    <row r="211" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="4"/>
-      <c r="B211" s="4"/>
-      <c r="C211" s="4"/>
-      <c r="D211" s="4"/>
-      <c r="E211" s="4"/>
-      <c r="F211" s="4"/>
-      <c r="G211" s="4"/>
-    </row>
-    <row r="212" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="4"/>
-      <c r="B212" s="4"/>
-      <c r="C212" s="4"/>
-      <c r="D212" s="4"/>
-      <c r="E212" s="4"/>
-      <c r="F212" s="4"/>
-      <c r="G212" s="4"/>
-    </row>
-    <row r="213" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="4"/>
-      <c r="B213" s="4"/>
-      <c r="C213" s="4"/>
-      <c r="D213" s="4"/>
-      <c r="E213" s="4"/>
-      <c r="F213" s="4"/>
-      <c r="G213" s="4"/>
-    </row>
-    <row r="214" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="4"/>
-      <c r="B214" s="4"/>
-      <c r="C214" s="4"/>
-      <c r="D214" s="4"/>
-      <c r="E214" s="4"/>
-      <c r="F214" s="4"/>
-      <c r="G214" s="4"/>
-    </row>
-    <row r="215" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="4"/>
-      <c r="B215" s="4"/>
-      <c r="C215" s="4"/>
-      <c r="D215" s="4"/>
-      <c r="E215" s="4"/>
-      <c r="F215" s="4"/>
-      <c r="G215" s="4"/>
-    </row>
-    <row r="216" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="4"/>
-      <c r="B216" s="4"/>
-      <c r="C216" s="4"/>
-      <c r="D216" s="4"/>
-      <c r="E216" s="4"/>
-      <c r="F216" s="4"/>
-      <c r="G216" s="4"/>
-    </row>
-    <row r="217" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="4"/>
-      <c r="B217" s="4"/>
-      <c r="C217" s="4"/>
-      <c r="D217" s="4"/>
-      <c r="E217" s="4"/>
-      <c r="F217" s="4"/>
-      <c r="G217" s="4"/>
-    </row>
-    <row r="218" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="4"/>
-      <c r="B218" s="4"/>
-      <c r="C218" s="4"/>
-      <c r="D218" s="4"/>
-      <c r="E218" s="4"/>
-      <c r="F218" s="4"/>
-      <c r="G218" s="4"/>
-    </row>
-    <row r="219" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="4"/>
-      <c r="B219" s="4"/>
-      <c r="C219" s="4"/>
-      <c r="D219" s="4"/>
-      <c r="E219" s="4"/>
-      <c r="F219" s="4"/>
-      <c r="G219" s="4"/>
-    </row>
-    <row r="220" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="4"/>
-      <c r="B220" s="4"/>
-      <c r="C220" s="4"/>
-      <c r="D220" s="4"/>
-      <c r="E220" s="4"/>
-      <c r="F220" s="4"/>
-      <c r="G220" s="4"/>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" s="2"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" s="2"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" s="2"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" s="2"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" s="2"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" s="2"/>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" s="2"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" s="2"/>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" s="2"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" s="2"/>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" s="2"/>
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" s="2"/>
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="2"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" s="2"/>
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="2"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" s="2"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" s="2"/>
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" s="2"/>
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" s="2"/>
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" s="2"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" s="2"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" s="2"/>
+      <c r="B161" s="2"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+      <c r="G161" s="2"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162" s="2"/>
+      <c r="B162" s="2"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163" s="2"/>
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164" s="2"/>
+      <c r="B164" s="2"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
+      <c r="G164" s="2"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165" s="2"/>
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166" s="2"/>
+      <c r="B166" s="2"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="2"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167" s="2"/>
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+      <c r="G167" s="2"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168" s="2"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="2"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A196" s="2"/>
+      <c r="B196" s="2"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="2"/>
+      <c r="E196" s="2"/>
+      <c r="F196" s="2"/>
+      <c r="G196" s="2"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A197" s="2"/>
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
+      <c r="F197" s="2"/>
+      <c r="G197" s="2"/>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A198" s="2"/>
+      <c r="B198" s="2"/>
+      <c r="C198" s="2"/>
+      <c r="D198" s="2"/>
+      <c r="E198" s="2"/>
+      <c r="F198" s="2"/>
+      <c r="G198" s="2"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A199" s="2"/>
+      <c r="B199" s="2"/>
+      <c r="C199" s="2"/>
+      <c r="D199" s="2"/>
+      <c r="E199" s="2"/>
+      <c r="F199" s="2"/>
+      <c r="G199" s="2"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A200" s="2"/>
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
+      <c r="F200" s="2"/>
+      <c r="G200" s="2"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A201" s="2"/>
+      <c r="B201" s="2"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="2"/>
+      <c r="E201" s="2"/>
+      <c r="F201" s="2"/>
+      <c r="G201" s="2"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A202" s="2"/>
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="2"/>
+      <c r="E202" s="2"/>
+      <c r="F202" s="2"/>
+      <c r="G202" s="2"/>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A203" s="2"/>
+      <c r="B203" s="2"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="2"/>
+      <c r="E203" s="2"/>
+      <c r="F203" s="2"/>
+      <c r="G203" s="2"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A204" s="2"/>
+      <c r="B204" s="2"/>
+      <c r="C204" s="2"/>
+      <c r="D204" s="2"/>
+      <c r="E204" s="2"/>
+      <c r="F204" s="2"/>
+      <c r="G204" s="2"/>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A205" s="2"/>
+      <c r="B205" s="2"/>
+      <c r="C205" s="2"/>
+      <c r="D205" s="2"/>
+      <c r="E205" s="2"/>
+      <c r="F205" s="2"/>
+      <c r="G205" s="2"/>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A206" s="2"/>
+      <c r="B206" s="2"/>
+      <c r="C206" s="2"/>
+      <c r="D206" s="2"/>
+      <c r="E206" s="2"/>
+      <c r="F206" s="2"/>
+      <c r="G206" s="2"/>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A207" s="2"/>
+      <c r="B207" s="2"/>
+      <c r="C207" s="2"/>
+      <c r="D207" s="2"/>
+      <c r="E207" s="2"/>
+      <c r="F207" s="2"/>
+      <c r="G207" s="2"/>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A208" s="2"/>
+      <c r="B208" s="2"/>
+      <c r="C208" s="2"/>
+      <c r="D208" s="2"/>
+      <c r="E208" s="2"/>
+      <c r="F208" s="2"/>
+      <c r="G208" s="2"/>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A209" s="2"/>
+      <c r="B209" s="2"/>
+      <c r="C209" s="2"/>
+      <c r="D209" s="2"/>
+      <c r="E209" s="2"/>
+      <c r="F209" s="2"/>
+      <c r="G209" s="2"/>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A210" s="2"/>
+      <c r="B210" s="2"/>
+      <c r="C210" s="2"/>
+      <c r="D210" s="2"/>
+      <c r="E210" s="2"/>
+      <c r="F210" s="2"/>
+      <c r="G210" s="2"/>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A211" s="2"/>
+      <c r="B211" s="2"/>
+      <c r="C211" s="2"/>
+      <c r="D211" s="2"/>
+      <c r="E211" s="2"/>
+      <c r="F211" s="2"/>
+      <c r="G211" s="2"/>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A212" s="2"/>
+      <c r="B212" s="2"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
+      <c r="E212" s="2"/>
+      <c r="F212" s="2"/>
+      <c r="G212" s="2"/>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A213" s="2"/>
+      <c r="B213" s="2"/>
+      <c r="C213" s="2"/>
+      <c r="D213" s="2"/>
+      <c r="E213" s="2"/>
+      <c r="F213" s="2"/>
+      <c r="G213" s="2"/>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A214" s="2"/>
+      <c r="B214" s="2"/>
+      <c r="C214" s="2"/>
+      <c r="D214" s="2"/>
+      <c r="E214" s="2"/>
+      <c r="F214" s="2"/>
+      <c r="G214" s="2"/>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A215" s="2"/>
+      <c r="B215" s="2"/>
+      <c r="C215" s="2"/>
+      <c r="D215" s="2"/>
+      <c r="E215" s="2"/>
+      <c r="F215" s="2"/>
+      <c r="G215" s="2"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A216" s="2"/>
+      <c r="B216" s="2"/>
+      <c r="C216" s="2"/>
+      <c r="D216" s="2"/>
+      <c r="E216" s="2"/>
+      <c r="F216" s="2"/>
+      <c r="G216" s="2"/>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A217" s="2"/>
+      <c r="B217" s="2"/>
+      <c r="C217" s="2"/>
+      <c r="D217" s="2"/>
+      <c r="E217" s="2"/>
+      <c r="F217" s="2"/>
+      <c r="G217" s="2"/>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A218" s="2"/>
+      <c r="B218" s="2"/>
+      <c r="C218" s="2"/>
+      <c r="D218" s="2"/>
+      <c r="E218" s="2"/>
+      <c r="F218" s="2"/>
+      <c r="G218" s="2"/>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A219" s="2"/>
+      <c r="B219" s="2"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
+      <c r="F219" s="2"/>
+      <c r="G219" s="2"/>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A220" s="2"/>
+      <c r="B220" s="2"/>
+      <c r="C220" s="2"/>
+      <c r="D220" s="2"/>
+      <c r="E220" s="2"/>
+      <c r="F220" s="2"/>
+      <c r="G220" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G84" xr:uid="{192CE0A2-B466-B145-94AC-1C7A26358D3C}">
-    <sortState ref="A2:G84">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G84">
       <sortCondition ref="C1:C84"/>
     </sortState>
   </autoFilter>

--- a/data/cva/raw/western_pacific/Giddens_etal_2022_tables.xlsx
+++ b/data/cva/raw/western_pacific/Giddens_etal_2022_tables.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/cc_allocation/data/cva/raw/western_pacific/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141EEF10-81AD-5446-9282-296F265E90E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7865DD3-6C9C-C045-9DAD-391E5A319B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{0FF03219-B693-6D44-B353-CCA0EAF54B06}"/>
+    <workbookView xWindow="540" yWindow="500" windowWidth="39960" windowHeight="20200" activeTab="1" xr2:uid="{0FF03219-B693-6D44-B353-CCA0EAF54B06}"/>
   </bookViews>
   <sheets>
     <sheet name="S4" sheetId="1" r:id="rId1"/>
     <sheet name="S5" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'S5'!$A$1:$G$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'S5'!$A$1:$H$84</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="215">
   <si>
     <t>Achilles tang</t>
   </si>
@@ -671,6 +671,9 @@
   </si>
   <si>
     <t>Abudefduf abdominalis</t>
+  </si>
+  <si>
+    <t>certainty</t>
   </si>
 </sst>
 </file>
@@ -1173,8 +1176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D31F62-8187-2244-A14C-49DA2E2FBABB}">
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2621,10 +2624,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F083DDEA-FDC6-F24D-99E4-FAF311212AC5}">
-  <dimension ref="A1:G220"/>
+  <dimension ref="A1:H220"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2638,7 +2641,7 @@
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>84</v>
       </c>
@@ -2660,8 +2663,11 @@
       <c r="G1" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>118</v>
       </c>
@@ -2683,8 +2689,11 @@
       <c r="G2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>63</v>
       </c>
@@ -2706,8 +2715,11 @@
       <c r="G3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
@@ -2729,8 +2741,11 @@
       <c r="G4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>116</v>
       </c>
@@ -2752,8 +2767,11 @@
       <c r="G5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -2775,8 +2793,11 @@
       <c r="G6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>59</v>
       </c>
@@ -2798,8 +2819,11 @@
       <c r="G7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>121</v>
       </c>
@@ -2821,8 +2845,11 @@
       <c r="G8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
@@ -2844,8 +2871,11 @@
       <c r="G9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>71</v>
       </c>
@@ -2867,8 +2897,11 @@
       <c r="G10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -2890,8 +2923,11 @@
       <c r="G11" s="1">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>68</v>
       </c>
@@ -2913,8 +2949,11 @@
       <c r="G12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -2936,8 +2975,11 @@
       <c r="G13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>44</v>
       </c>
@@ -2959,8 +3001,11 @@
       <c r="G14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
@@ -2982,8 +3027,11 @@
       <c r="G15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -3005,8 +3053,11 @@
       <c r="G16" s="1">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>77</v>
       </c>
@@ -3028,8 +3079,11 @@
       <c r="G17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -3051,8 +3105,11 @@
       <c r="G18" s="1">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>76</v>
       </c>
@@ -3074,8 +3131,11 @@
       <c r="G19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -3097,8 +3157,11 @@
       <c r="G20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>69</v>
       </c>
@@ -3120,8 +3183,11 @@
       <c r="G21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="H21" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>65</v>
       </c>
@@ -3143,8 +3209,11 @@
       <c r="G22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -3166,8 +3235,11 @@
       <c r="G23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>70</v>
       </c>
@@ -3189,8 +3261,11 @@
       <c r="G24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>112</v>
       </c>
@@ -3212,8 +3287,11 @@
       <c r="G25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>111</v>
       </c>
@@ -3235,8 +3313,11 @@
       <c r="G26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
@@ -3258,8 +3339,11 @@
       <c r="G27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>53</v>
       </c>
@@ -3281,8 +3365,11 @@
       <c r="G28" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>23</v>
       </c>
@@ -3304,8 +3391,11 @@
       <c r="G29" s="1">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>50</v>
       </c>
@@ -3327,8 +3417,11 @@
       <c r="G30" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>75</v>
       </c>
@@ -3350,8 +3443,11 @@
       <c r="G31" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>20</v>
       </c>
@@ -3373,8 +3469,11 @@
       <c r="G32" s="1">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>105</v>
       </c>
@@ -3396,8 +3495,11 @@
       <c r="G33" s="1">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>119</v>
       </c>
@@ -3419,8 +3521,11 @@
       <c r="G34" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>60</v>
       </c>
@@ -3442,8 +3547,11 @@
       <c r="G35" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>25</v>
       </c>
@@ -3465,8 +3573,11 @@
       <c r="G36" s="1">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>22</v>
       </c>
@@ -3488,8 +3599,11 @@
       <c r="G37" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>52</v>
       </c>
@@ -3511,8 +3625,11 @@
       <c r="G38" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>30</v>
       </c>
@@ -3534,8 +3651,11 @@
       <c r="G39" s="1">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>67</v>
       </c>
@@ -3557,8 +3677,11 @@
       <c r="G40" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H40" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>108</v>
       </c>
@@ -3580,8 +3703,11 @@
       <c r="G41" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>56</v>
       </c>
@@ -3603,8 +3729,11 @@
       <c r="G42" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
@@ -3626,8 +3755,11 @@
       <c r="G43" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>62</v>
       </c>
@@ -3649,8 +3781,11 @@
       <c r="G44" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H44" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>97</v>
       </c>
@@ -3672,8 +3807,11 @@
       <c r="G45" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H45" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>113</v>
       </c>
@@ -3695,8 +3833,11 @@
       <c r="G46" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H46" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>16</v>
       </c>
@@ -3718,8 +3859,11 @@
       <c r="G47" s="1">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H47" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3741,8 +3885,11 @@
       <c r="G48" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H48" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>18</v>
       </c>
@@ -3764,8 +3911,11 @@
       <c r="G49" s="1">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H49" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>8</v>
       </c>
@@ -3787,8 +3937,11 @@
       <c r="G50" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H50" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>100</v>
       </c>
@@ -3810,8 +3963,11 @@
       <c r="G51" s="1">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H51" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>29</v>
       </c>
@@ -3833,8 +3989,11 @@
       <c r="G52" s="1">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H52" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>31</v>
       </c>
@@ -3856,8 +4015,11 @@
       <c r="G53" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H53" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
@@ -3879,8 +4041,11 @@
       <c r="G54" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H54" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>10</v>
       </c>
@@ -3902,8 +4067,11 @@
       <c r="G55" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H55" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>9</v>
       </c>
@@ -3925,8 +4093,11 @@
       <c r="G56" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H56" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>12</v>
       </c>
@@ -3948,8 +4119,11 @@
       <c r="G57" s="1">
         <v>0.96</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H57" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>26</v>
       </c>
@@ -3971,8 +4145,11 @@
       <c r="G58" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H58" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>48</v>
       </c>
@@ -3994,8 +4171,11 @@
       <c r="G59" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H59" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>46</v>
       </c>
@@ -4017,8 +4197,11 @@
       <c r="G60" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H60" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>79</v>
       </c>
@@ -4040,8 +4223,11 @@
       <c r="G61" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H61" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>81</v>
       </c>
@@ -4063,8 +4249,11 @@
       <c r="G62" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H62" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>114</v>
       </c>
@@ -4086,8 +4275,11 @@
       <c r="G63" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H63" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>115</v>
       </c>
@@ -4109,8 +4301,11 @@
       <c r="G64" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H64" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>35</v>
       </c>
@@ -4132,8 +4327,11 @@
       <c r="G65" s="1">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H65" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>7</v>
       </c>
@@ -4155,8 +4353,11 @@
       <c r="G66" s="1">
         <v>0.99</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H66" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>51</v>
       </c>
@@ -4178,8 +4379,11 @@
       <c r="G67" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H67" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>24</v>
       </c>
@@ -4201,8 +4405,11 @@
       <c r="G68" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H68" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>57</v>
       </c>
@@ -4224,8 +4431,11 @@
       <c r="G69" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H69" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>28</v>
       </c>
@@ -4247,8 +4457,11 @@
       <c r="G70" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H70" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>73</v>
       </c>
@@ -4270,8 +4483,11 @@
       <c r="G71" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H71" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>120</v>
       </c>
@@ -4293,8 +4509,11 @@
       <c r="G72" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H72" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>124</v>
       </c>
@@ -4316,8 +4535,11 @@
       <c r="G73" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H73" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>122</v>
       </c>
@@ -4339,8 +4561,11 @@
       <c r="G74" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H74" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>109</v>
       </c>
@@ -4362,8 +4587,11 @@
       <c r="G75" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H75" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>123</v>
       </c>
@@ -4385,8 +4613,11 @@
       <c r="G76" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H76" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>82</v>
       </c>
@@ -4408,8 +4639,11 @@
       <c r="G77" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H77" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>39</v>
       </c>
@@ -4431,8 +4665,11 @@
       <c r="G78" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H78" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>13</v>
       </c>
@@ -4454,8 +4691,11 @@
       <c r="G79" s="1">
         <v>0.57999999999999996</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H79" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>58</v>
       </c>
@@ -4477,8 +4717,11 @@
       <c r="G80" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H80" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>101</v>
       </c>
@@ -4500,8 +4743,11 @@
       <c r="G81" s="1">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H81" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>11</v>
       </c>
@@ -4523,8 +4769,11 @@
       <c r="G82" s="1">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H82" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>14</v>
       </c>
@@ -4546,8 +4795,11 @@
       <c r="G83" s="1">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H83" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>36</v>
       </c>
@@ -4569,8 +4821,11 @@
       <c r="G84" s="1">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H84" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -4579,7 +4834,7 @@
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -4588,7 +4843,7 @@
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -4597,7 +4852,7 @@
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -4606,7 +4861,7 @@
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -4615,7 +4870,7 @@
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -4624,7 +4879,7 @@
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -4633,7 +4888,7 @@
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -4642,7 +4897,7 @@
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -4651,7 +4906,7 @@
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -4660,7 +4915,7 @@
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -4669,7 +4924,7 @@
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -5318,11 +5573,7 @@
       <c r="G220" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G84" xr:uid="{192CE0A2-B466-B145-94AC-1C7A26358D3C}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G84">
-      <sortCondition ref="C1:C84"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:H84" xr:uid="{F083DDEA-FDC6-F24D-99E4-FAF311212AC5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
